--- a/DateBase/orders/Nha Thu_2025-11-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-15.xlsx
@@ -521,7 +521,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Y</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-15.xlsx
@@ -523,6 +523,9 @@
       <c r="A11" t="str">
         <v/>
       </c>
+      <c r="C11" t="str">
+        <v>696_百合笑脸_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2025-11-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-15.xlsx
@@ -526,6 +526,9 @@
       <c r="C11" t="str">
         <v>696_百合笑脸_undefined_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -587,7 +590,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010116581010150</v>
+        <v>01010116581010155</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,9 +530,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F12" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F13" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>3</v>
+      </c>
+      <c r="C17" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -590,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010116581010155</v>
+        <v>010101165810101555030510107185.590</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-15.xlsx
@@ -609,6 +609,9 @@
       <c r="C21" t="str">
         <v>578_腊梅粉_wax pink_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -670,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010101165810101555030510107185.590</v>
+        <v>010101165810101555030510107185.595</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,9 +613,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>580_腊梅黄_wax yellow_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>4</v>
+      </c>
+      <c r="C23" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>581_腊梅橙_wax orange_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>580_腊梅黄_wax yellow_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +753,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010101165810101555030510107185.595</v>
+        <v>010101165810101555030510107185.5955109810410550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -692,10 +692,182 @@
       <c r="A31" t="str">
         <v>5</v>
       </c>
+      <c r="C31" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>6</v>
+      </c>
+      <c r="C37" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>7</v>
+      </c>
+      <c r="C45" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>8</v>
+      </c>
+      <c r="C50" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -753,7 +925,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010101165810101555030510107185.5955109810410550</v>
+        <v>010101165810101555030510107185.595510981041055200.5610101010101020201015101515102015300</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -864,10 +864,21 @@
       <c r="C51" t="str">
         <v>439_九星叶_undefined_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L52"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -925,7 +936,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010101165810101555030510107185.595510981041055200.5610101010101020201015101515102015300</v>
+        <v>010101165810101555030510107185.595510981041055200.5610101010101020201015101515102015303015</v>
       </c>
     </row>
   </sheetData>
